--- a/biology/Mycologie/Alphonse_Boistel/Alphonse_Boistel.xlsx
+++ b/biology/Mycologie/Alphonse_Boistel/Alphonse_Boistel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alphonse Barthélémy Martin Boistel est un juriste et un naturaliste français, né le 24 décembre 1836 à Paris et mort le 21 septembre 1908 à Paris.
 Il est reçu premier à l’agrégation en 1866 et obtient un poste d’enseignant de droit civil à Grenoble. De 1870 à 1879, il enseigne le droit commercial à Paris. Il dirige de 1875 à 1907, la Revue général du droit et participe au Recueil Dalloz.
@@ -513,7 +525,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier d'Académie
  Chevalier de la Légion d'honneur</t>
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De la nullité et de la résolution de la vente et du partage (C. de Mourgues, Paris, 1859) — thèse de licence.
 De la puissance du père sur la personne de ses enfants en droit romain et en droit français (Imprimerie de E. Donnaud, Paris, 1863) — thèse de doctorat.
